--- a/docss/trend/poland/E_huntington.xlsx
+++ b/docss/trend/poland/E_huntington.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\poland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\poland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B1" sqref="B1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,13 +1583,13 @@
         <v>1999</v>
       </c>
       <c r="B2" s="7">
-        <v>7.29498949367553E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="C2" s="7">
-        <v>6.6201588604599237E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D2" s="7">
-        <v>7.9182126559317112E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,13 +1597,13 @@
         <v>2000</v>
       </c>
       <c r="B3" s="7">
-        <v>0.11381150921806693</v>
+        <v>0.114</v>
       </c>
       <c r="C3" s="7">
-        <v>6.7370594944804907E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D3" s="7">
-        <v>0.15433252835646272</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,13 +1611,13 @@
         <v>2001</v>
       </c>
       <c r="B4" s="7">
-        <v>0.12418070901185274</v>
+        <v>0.124</v>
       </c>
       <c r="C4" s="7">
-        <v>0.12207076139748096</v>
+        <v>0.122</v>
       </c>
       <c r="D4" s="7">
-        <v>0.12700929632410407</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1625,13 @@
         <v>2002</v>
       </c>
       <c r="B5" s="7">
-        <v>8.2637403160333633E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="C5" s="7">
-        <v>6.8358907010406256E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D5" s="7">
-        <v>9.6528429538011551E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,13 +1639,13 @@
         <v>2003</v>
       </c>
       <c r="B6" s="7">
-        <v>0.11735309986397624</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="C6" s="7">
-        <v>9.8856645636260509E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D6" s="7">
-        <v>0.13256627623923123</v>
+        <v>0.13300000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,13 +1653,13 @@
         <v>2004</v>
       </c>
       <c r="B7" s="7">
-        <v>0.11311775865033269</v>
+        <v>0.113</v>
       </c>
       <c r="C7" s="7">
-        <v>5.5201655253767967E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D7" s="7">
-        <v>0.16553928563371301</v>
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,13 +1667,13 @@
         <v>2005</v>
       </c>
       <c r="B8" s="7">
-        <v>0.10737628350034356</v>
+        <v>0.107</v>
       </c>
       <c r="C8" s="7">
-        <v>9.9779543001204729E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D8" s="7">
-        <v>0.10858976235613227</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,13 +1681,13 @@
         <v>2006</v>
       </c>
       <c r="B9" s="7">
-        <v>0.15189741738140583</v>
+        <v>0.152</v>
       </c>
       <c r="C9" s="7">
-        <v>0.15103450696915388</v>
+        <v>0.151</v>
       </c>
       <c r="D9" s="7">
-        <v>0.15498872403986752</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,13 +1695,13 @@
         <v>2007</v>
       </c>
       <c r="B10" s="7">
-        <v>0.14888023736421019</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="C10" s="7">
-        <v>0.12471977341920137</v>
+        <v>0.125</v>
       </c>
       <c r="D10" s="7">
-        <v>0.16597236809320748</v>
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,13 +1709,13 @@
         <v>2008</v>
       </c>
       <c r="B11" s="7">
-        <v>0.11469164630398154</v>
+        <v>0.115</v>
       </c>
       <c r="C11" s="7">
-        <v>0.12137951049953699</v>
+        <v>0.121</v>
       </c>
       <c r="D11" s="7">
-        <v>0.10350258206017315</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,13 +1723,13 @@
         <v>2009</v>
       </c>
       <c r="B12" s="7">
-        <v>0.11179357604123652</v>
+        <v>0.112</v>
       </c>
       <c r="C12" s="7">
-        <v>0.10468183690682054</v>
+        <v>0.105</v>
       </c>
       <c r="D12" s="7">
-        <v>0.11742289562243968</v>
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1737,13 @@
         <v>2010</v>
       </c>
       <c r="B13" s="7">
-        <v>0.16686049953568727</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="C13" s="7">
-        <v>0.17372532980516553</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="D13" s="7">
-        <v>0.1597830627579242</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,13 +1751,13 @@
         <v>2011</v>
       </c>
       <c r="B14" s="7">
-        <v>0.15456883376464248</v>
+        <v>0.155</v>
       </c>
       <c r="C14" s="7">
-        <v>0.12682256568223238</v>
+        <v>0.127</v>
       </c>
       <c r="D14" s="7">
-        <v>0.17758460622280836</v>
+        <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,13 +1765,13 @@
         <v>2012</v>
       </c>
       <c r="B15" s="7">
-        <v>0.12775046285241842</v>
+        <v>0.128</v>
       </c>
       <c r="C15" s="7">
-        <v>7.7441029250621796E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D15" s="7">
-        <v>0.17132415785454214</v>
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,13 +1779,13 @@
         <v>2013</v>
       </c>
       <c r="B16" s="7">
-        <v>0.13992944150231779</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C16" s="7">
-        <v>8.1838695798069239E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D16" s="7">
-        <v>0.19344586657825857</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1793,13 +1793,13 @@
         <v>2014</v>
       </c>
       <c r="B17" s="7">
-        <v>0.14133872161619365</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="C17" s="7">
-        <v>0.10451136808842421</v>
+        <v>0.105</v>
       </c>
       <c r="D17" s="7">
-        <v>0.1780905295163393</v>
+        <v>0.17799999999999999</v>
       </c>
     </row>
   </sheetData>
